--- a/medicine/Premiers secours et secourisme/Croix-Rouge_canadienne/Croix-Rouge_canadienne.xlsx
+++ b/medicine/Premiers secours et secourisme/Croix-Rouge_canadienne/Croix-Rouge_canadienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Croix-Rouge canadienne (anciennement La Société canadienne de la Croix-Rouge[1]) est une association caritative canadienne, chapitre national du mouvement international de la Croix-Rouge et du Croissant-Rouge. L'organisation reçoit des dons privés et publics[2].
-La Croix-Rouge canadienne fournit des services de prévention et de premiers secours lors de situations d'urgence ou de catastrophes. Elle forme également des volontaires à intervenir dans ces situations, ou à faire de la prévention lors d'activités extérieures[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Croix-Rouge canadienne (anciennement La Société canadienne de la Croix-Rouge) est une association caritative canadienne, chapitre national du mouvement international de la Croix-Rouge et du Croissant-Rouge. L'organisation reçoit des dons privés et publics.
+La Croix-Rouge canadienne fournit des services de prévention et de premiers secours lors de situations d'urgence ou de catastrophes. Elle forme également des volontaires à intervenir dans ces situations, ou à faire de la prévention lors d'activités extérieures.
 L'organisme est dirigé depuis 2008 par Conrad Sauvé (d).
 </t>
         </is>
@@ -513,13 +525,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Société canadienne de la Croix-Rouge est fondée à l'automne 1896 en tant qu'affiliation de la Croix-Rouge britannique (connue à l'époque sous le nom de National Society for Aid to the Sick and Wounded in War). L'organisation bénéficie de l'aide substantielle de George Ryerson, fondateur de l'Ambulance Saint-Jean Canada (en), pour amasser des fonds[4]. En 1909, le statut de l'organisation au sein de la Croix-Rouge est officialisé par The Canadian Red Cross Society Act.
-La première intervention internationale de la Croix-Rouge canadienne se déroule en Afrique lors de la guerre des Boers[4].
-En 1918, à la fin de la Première Guerre mondiale, l'organisme commence à former des infirmières en santé publique[5],[6].
-Sang contaminé
-Pendant de nombreuses années, la Croix-Rouge canadienne est responsable de la collecte de dons de sang à des fins médicales sur le territoire[7]. En 1998, après le dévoilement de sérieuses lacunes lors de la collecte de dons sanguins et à la suite de la Commission d'enquête sur l'approvisionnement en sang au Canada, l'organisation cesse de fournir ce service[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Société canadienne de la Croix-Rouge est fondée à l'automne 1896 en tant qu'affiliation de la Croix-Rouge britannique (connue à l'époque sous le nom de National Society for Aid to the Sick and Wounded in War). L'organisation bénéficie de l'aide substantielle de George Ryerson, fondateur de l'Ambulance Saint-Jean Canada (en), pour amasser des fonds. En 1909, le statut de l'organisation au sein de la Croix-Rouge est officialisé par The Canadian Red Cross Society Act.
+La première intervention internationale de la Croix-Rouge canadienne se déroule en Afrique lors de la guerre des Boers.
+En 1918, à la fin de la Première Guerre mondiale, l'organisme commence à former des infirmières en santé publique,.
 </t>
         </is>
       </c>
@@ -545,13 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Programmes</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Au Canada
-À l'international</t>
+          <t>Sang contaminé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant de nombreuses années, la Croix-Rouge canadienne est responsable de la collecte de dons de sang à des fins médicales sur le territoire. En 1998, après le dévoilement de sérieuses lacunes lors de la collecte de dons sanguins et à la suite de la Commission d'enquête sur l'approvisionnement en sang au Canada, l'organisation cesse de fournir ce service.
+</t>
         </is>
       </c>
     </row>
